--- a/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进出口总额/中国同北美洲各国(地区)进出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进出口总额/中国同北美洲各国(地区)进出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,518 +468,316 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690892</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>3713988</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.6</v>
+      </c>
       <c r="D2" t="n">
-        <v>8139310</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>42291973.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5506.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33936.8</v>
+      </c>
       <c r="G2" t="n">
-        <v>7446237</v>
+        <v>38538528.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737456</v>
+        <v>4743604.9865</v>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>6.8437</v>
       </c>
       <c r="D3" t="n">
-        <v>8788218</v>
+        <v>49442200.252</v>
       </c>
       <c r="E3" t="n">
-        <v>1089</v>
+        <v>4859.9821</v>
       </c>
       <c r="F3" t="n">
-        <v>1109</v>
+        <v>35501.901</v>
       </c>
       <c r="G3" t="n">
-        <v>8048492</v>
+        <v>44658226.5387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793034</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
+        <v>5133528</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>10514619</v>
+        <v>53627576.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1253</v>
+        <v>5789.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1959</v>
+        <v>20775.7</v>
       </c>
       <c r="G4" t="n">
-        <v>9718343</v>
+        <v>48467425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000667</v>
+        <v>5445365.9</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4</v>
+        <v>189.3</v>
       </c>
       <c r="D5" t="n">
-        <v>13639397</v>
+        <v>57546658.4</v>
       </c>
       <c r="E5" t="n">
-        <v>2274</v>
+        <v>7229.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3163.4</v>
+        <v>19003.5</v>
       </c>
       <c r="G5" t="n">
-        <v>12633286</v>
+        <v>52074869.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1551416.9</v>
+        <v>5518568.9077</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2</v>
+        <v>104.8033</v>
       </c>
       <c r="D6" t="n">
-        <v>18526062.5</v>
+        <v>61056432.3891</v>
       </c>
       <c r="E6" t="n">
-        <v>2103</v>
+        <v>6529.9827</v>
       </c>
       <c r="F6" t="n">
-        <v>12669.8</v>
+        <v>18873.803</v>
       </c>
       <c r="G6" t="n">
-        <v>16959857.5</v>
+        <v>55512354.8924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1916483</v>
+        <v>5563639.1</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>56.8</v>
       </c>
       <c r="D7" t="n">
-        <v>23083066</v>
+        <v>61311473.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3101</v>
+        <v>8997.9</v>
       </c>
       <c r="F7" t="n">
-        <v>12223</v>
+        <v>36482.9</v>
       </c>
       <c r="G7" t="n">
-        <v>21151252</v>
+        <v>55702296.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2317883.2971</v>
+        <v>4567568.2</v>
       </c>
       <c r="C8" t="n">
-        <v>1950.6774</v>
+        <v>29.9</v>
       </c>
       <c r="D8" t="n">
-        <v>28603615.3534</v>
+        <v>56572422.2</v>
       </c>
       <c r="E8" t="n">
-        <v>3053.4254</v>
+        <v>10177</v>
       </c>
       <c r="F8" t="n">
-        <v>14781.7445</v>
+        <v>23032.3</v>
       </c>
       <c r="G8" t="n">
-        <v>26265946.209</v>
+        <v>51971614.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3033481.9053</v>
+        <v>5179846.2</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8906</v>
+        <v>47.1</v>
       </c>
       <c r="D9" t="n">
-        <v>33252284.3889</v>
+        <v>63574273.9</v>
       </c>
       <c r="E9" t="n">
-        <v>3855.3975</v>
+        <v>13587.3</v>
       </c>
       <c r="F9" t="n">
-        <v>8200.9936</v>
+        <v>13203.5</v>
       </c>
       <c r="G9" t="n">
-        <v>30206716.2019</v>
+        <v>58367590</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3446922.7464</v>
+        <v>6351264.4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8722</v>
+        <v>59.3</v>
       </c>
       <c r="D10" t="n">
-        <v>36834225.6485</v>
+        <v>69743750.40000001</v>
       </c>
       <c r="E10" t="n">
-        <v>3786.5869</v>
+        <v>23588.6</v>
       </c>
       <c r="F10" t="n">
-        <v>9154.3892</v>
+        <v>16938.2</v>
       </c>
       <c r="G10" t="n">
-        <v>33374348.0538</v>
+        <v>63351899.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2972784.4759</v>
+        <v>6508404.8685</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>236.3554</v>
       </c>
       <c r="D11" t="n">
-        <v>32811172</v>
+        <v>60695831.5535</v>
       </c>
       <c r="E11" t="n">
-        <v>4460</v>
+        <v>27472.2745</v>
       </c>
       <c r="F11" t="n">
-        <v>7643</v>
+        <v>3690.4787</v>
       </c>
       <c r="G11" t="n">
-        <v>29826259.5448</v>
+        <v>54156027.5764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3713988</v>
+        <v>6415793.1135</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6</v>
+        <v>107.6149</v>
       </c>
       <c r="D12" t="n">
-        <v>42291973.4</v>
+        <v>65143585.7242</v>
       </c>
       <c r="E12" t="n">
-        <v>5506.4</v>
+        <v>26158.66</v>
       </c>
       <c r="F12" t="n">
-        <v>33936.8</v>
+        <v>3559.2293</v>
       </c>
       <c r="G12" t="n">
-        <v>38538528.5</v>
+        <v>58697967.1065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4743604.9865</v>
+        <v>8200004</v>
       </c>
       <c r="C13" t="n">
-        <v>6.8437</v>
+        <v>287</v>
       </c>
       <c r="D13" t="n">
-        <v>49442200.252</v>
+        <v>83809687</v>
       </c>
       <c r="E13" t="n">
-        <v>4859.9821</v>
+        <v>23878</v>
       </c>
       <c r="F13" t="n">
-        <v>35501.901</v>
+        <v>7914</v>
       </c>
       <c r="G13" t="n">
-        <v>44658226.5387</v>
+        <v>75577604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5133528</v>
+        <v>9608814.936799999</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>53627576.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5789.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20775.7</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>48467425</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5445365.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>189.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57546658.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7229.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19003.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>52074869.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5518568.9077</v>
-      </c>
-      <c r="C16" t="n">
-        <v>104.8033</v>
-      </c>
-      <c r="D16" t="n">
-        <v>61056432.3891</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6529.9827</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18873.803</v>
-      </c>
-      <c r="G16" t="n">
-        <v>55512354.8924</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5563639.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>61311473.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8997.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36482.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>55702296.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4567568.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56572422.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10177</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23032.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>51971614.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5179846.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>63574273.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13587.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13203.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>58367590</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6351264.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>69743750.40000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23588.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16938.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>63351899.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6508404.8685</v>
-      </c>
-      <c r="C21" t="n">
-        <v>236.3554</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60695831.5535</v>
-      </c>
-      <c r="E21" t="n">
-        <v>27472.2745</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3690.4787</v>
-      </c>
-      <c r="G21" t="n">
-        <v>54156027.5764</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6415793.1135</v>
-      </c>
-      <c r="C22" t="n">
-        <v>107.6149</v>
-      </c>
-      <c r="D22" t="n">
-        <v>65143585.7242</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26158.66</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3559.2293</v>
-      </c>
-      <c r="G22" t="n">
-        <v>58697967.1065</v>
+        <v>75942714.3995</v>
       </c>
     </row>
   </sheetData>
